--- a/xlsx/国家_intext.xlsx
+++ b/xlsx/国家_intext.xlsx
@@ -15,1191 +15,1185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>国家</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>政治学基本主题列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history</t>
+  </si>
+  <si>
+    <t>en-Political history</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
+  </si>
+  <si>
+    <t>en-Political history of the world</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>城邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federacy</t>
+  </si>
+  <si>
+    <t>en-Federacy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
+  </si>
+  <si>
+    <t>封建制度 (欧洲)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独裁政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>精英政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>政治学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国际关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>国际关系理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>比较政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>官僚制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
+  </si>
+  <si>
+    <t>基层官僚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
+  </si>
+  <si>
+    <t>en-Adhocracy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
+  </si>
+  <si>
+    <t>en-Public policy doctrine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>公益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>司法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>中央选举委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
+  </si>
+  <si>
+    <t>en-Theories of political behavior</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
+  </si>
+  <si>
+    <t>en-Biology and political orientation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
+  </si>
+  <si>
+    <t>en-Political organisation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>投票制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Politics</t>
+  </si>
+  <si>
+    <t>Template talk-Politics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+  </si>
+  <si>
+    <t>国家 (消歧义)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>血统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
+  </si>
+  <si>
+    <t>政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E9%AB%94</t>
+  </si>
+  <si>
+    <t>社会群体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>主权国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5</t>
+  </si>
+  <si>
+    <t>象征</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87</t>
+  </si>
+  <si>
+    <t>甲骨文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%87</t>
+  </si>
+  <si>
+    <t>金文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%98%93</t>
+  </si>
+  <si>
+    <t>周易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>汉朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>儒家文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
+  </si>
+  <si>
+    <t>西汉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%90%91</t>
+  </si>
+  <si>
+    <t>刘向</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E8%8B%91</t>
+  </si>
+  <si>
+    <t>说苑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>明史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AD%A6%E4%B8%9C%E6%B8%90</t>
+  </si>
+  <si>
+    <t>西学东渐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E8%8B%B1%E6%96%87</t>
+  </si>
+  <si>
+    <t>中古英文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%95%8C</t>
+  </si>
+  <si>
+    <t>国界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
+  </si>
+  <si>
+    <t>政治实体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
+  </si>
+  <si>
+    <t>罗曼语族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B_(%E6%94%BF%E6%B2%BB)</t>
+  </si>
+  <si>
+    <t>国 (政治)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
+  </si>
+  <si>
+    <t>马基维利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E9%AB%94</t>
+  </si>
+  <si>
+    <t>共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>民族国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>人文地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4</t>
+  </si>
+  <si>
+    <t>范畴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
+  </si>
+  <si>
+    <t>人民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>邦国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>马克斯·韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
+  </si>
+  <si>
+    <t>武装力量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
+  </si>
+  <si>
+    <t>公务员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B1%82%E5%88%B6</t>
+  </si>
+  <si>
+    <t>科层制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>国际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>全球化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>资本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>卡尔·马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国会员国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国观察员列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>原始社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
+  </si>
+  <si>
+    <t>私有制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B7%A3</t>
+  </si>
+  <si>
+    <t>血缘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%82%A6</t>
+  </si>
+  <si>
+    <t>酋邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>古埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E5%BE%B7%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿卡德帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>亚历山大大帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>古罗马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>直接民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%8E%8B%E6%94%BF%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>罗马王政时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>罗马共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
+  </si>
+  <si>
+    <t>罗马元老院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>希腊城邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%B3%95</t>
+  </si>
+  <si>
+    <t>罗马法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E7%A7%81%E6%9D%83</t>
+  </si>
+  <si>
+    <t>隐私权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
+  </si>
+  <si>
+    <t>所有权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
+  </si>
+  <si>
+    <t>税赋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
+  </si>
+  <si>
+    <t>独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%93%8E%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>都铎王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>哈布斯堡王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%97%81%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>波旁王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E4%BB%A3%E8%A1%A8%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>外交代表机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>重商主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>族群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>帝国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>契约论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>亚里士多德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
+  </si>
+  <si>
+    <t>西塞罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>国际政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
+  </si>
+  <si>
+    <t>多元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>制度主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>共产党宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>恩格斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E3%80%81%E7%A7%81%E6%9C%89%E5%88%B6%E5%92%8C%E5%9B%BD%E5%AE%B6%E7%9A%84%E8%B5%B7%E6%BA%90</t>
+  </si>
+  <si>
+    <t>家庭、私有制和国家的起源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%96%97%E4%BA%89</t>
+  </si>
+  <si>
+    <t>阶级斗争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8A%9F%E8%83%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>结构功能主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>利益集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>公民社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
+  </si>
+  <si>
+    <t>私有化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
+  </si>
+  <si>
+    <t>国有化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>尤尔根·哈贝马斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%A2%86%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>公共领域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>托马斯·霍布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E5%B0%94</t>
+  </si>
+  <si>
+    <t>黑格尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>安东尼奥·葛兰西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E9%98%BF%E5%B0%94%E9%83%BD%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>路易·皮埃尔·阿尔都塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
+  </si>
+  <si>
+    <t>教堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>工会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%B6%AD%E5%A4%9A%E5%9C%8B%E5%AE%B6%E6%AC%8A%E5%88%A9%E7%BE%A9%E5%8B%99%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>蒙特维多国家权利义务公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
+  </si>
+  <si>
+    <t>维基数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>有限承认国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国旗列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8D%80</t>
+  </si>
+  <si>
+    <t>政区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>世界政区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>警察国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E4%B8%80%E8%A6%BD</t>
+  </si>
+  <si>
+    <t>没有军队的国家一览</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>单一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%99%A8</t>
+  </si>
+  <si>
+    <t>国家机器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%8E%E7%A4%BE%E4%BC%9A%E7%9A%84%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>国家与社会的关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>政治學基本主題列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history</t>
-  </si>
-  <si>
-    <t>en-Political history</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
-  </si>
-  <si>
-    <t>en-Political history of the world</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>城邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federacy</t>
-  </si>
-  <si>
-    <t>en-Federacy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
-  </si>
-  <si>
-    <t>封建制度 (歐洲)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独裁政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委員會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>精英政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神权政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>政治学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国际关系学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>國際關係理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>比较政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共行政学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>官僚制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
-  </si>
-  <si>
-    <t>基层官僚</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
-  </si>
-  <si>
-    <t>en-Adhocracy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
-  </si>
-  <si>
-    <t>en-Public policy doctrine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>公益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>外交政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>司法機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>中央选举委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>主权</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
-  </si>
-  <si>
-    <t>en-Theories of political behavior</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
-  </si>
-  <si>
-    <t>en-Biology and political orientation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
-  </si>
-  <si>
-    <t>en-Political organisation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>投票制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>投票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>联邦主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
-  </si>
-  <si>
-    <t>意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Politics</t>
-  </si>
-  <si>
-    <t>Template talk-Politics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
-  </si>
-  <si>
-    <t>國家 (消歧義)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>血統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>领土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
-  </si>
-  <si>
-    <t>政权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E9%AB%94</t>
-  </si>
-  <si>
-    <t>社會群體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>主權國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5</t>
-  </si>
-  <si>
-    <t>象徵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87</t>
-  </si>
-  <si>
-    <t>甲骨文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>領土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%87</t>
-  </si>
-  <si>
-    <t>金文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%98%93</t>
-  </si>
-  <si>
-    <t>周易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6</t>
-  </si>
-  <si>
-    <t>秦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>漢朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>儒家文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
-  </si>
-  <si>
-    <t>西漢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%90%91</t>
-  </si>
-  <si>
-    <t>劉向</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E8%8B%91</t>
-  </si>
-  <si>
-    <t>說苑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>明史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AD%A6%E4%B8%9C%E6%B8%90</t>
-  </si>
-  <si>
-    <t>西学东渐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>意大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E8%8B%B1%E6%96%87</t>
-  </si>
-  <si>
-    <t>中古英文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%95%8C</t>
-  </si>
-  <si>
-    <t>國界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>區域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
-  </si>
-  <si>
-    <t>政治實體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
-  </si>
-  <si>
-    <t>罗曼语族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B_(%E6%94%BF%E6%B2%BB)</t>
-  </si>
-  <si>
-    <t>國 (政治)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
-  </si>
-  <si>
-    <t>馬基維利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E9%AB%94</t>
-  </si>
-  <si>
-    <t>共同體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>民族國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>人文地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4</t>
-  </si>
-  <si>
-    <t>范畴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
-  </si>
-  <si>
-    <t>人民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>邦国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>马克斯·韦伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
-  </si>
-  <si>
-    <t>武装力量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
-  </si>
-  <si>
-    <t>公務員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B1%82%E5%88%B6</t>
-  </si>
-  <si>
-    <t>科层制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>國際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>全球化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>資本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>卡爾·馬克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國會員國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國觀察員列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>原始社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
-  </si>
-  <si>
-    <t>私有制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B7%A3</t>
-  </si>
-  <si>
-    <t>血緣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%82%A6</t>
-  </si>
-  <si>
-    <t>酋邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>古埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E5%BE%B7%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿卡德帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>古希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>亚历山大大帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>古罗马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>直接民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%8E%8B%E6%94%BF%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>罗马王政时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>罗马共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
-  </si>
-  <si>
-    <t>羅馬元老院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>希臘城邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%B3%95</t>
-  </si>
-  <si>
-    <t>罗马法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E7%A7%81%E6%9D%83</t>
-  </si>
-  <si>
-    <t>隐私权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>中世紀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
-  </si>
-  <si>
-    <t>所有权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
-  </si>
-  <si>
-    <t>稅賦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
-  </si>
-  <si>
-    <t>独裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%93%8E%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>都铎王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>英格兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>哈布斯堡王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%97%81%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>波旁王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E4%BB%A3%E8%A1%A8%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>外交代表機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>重商主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>族群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>帝国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>契约论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>亚里士多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
-  </si>
-  <si>
-    <t>西塞罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>國際政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
-  </si>
-  <si>
-    <t>多元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>制度主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>共产党宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>恩格斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E3%80%81%E7%A7%81%E6%9C%89%E5%88%B6%E5%92%8C%E5%9B%BD%E5%AE%B6%E7%9A%84%E8%B5%B7%E6%BA%90</t>
-  </si>
-  <si>
-    <t>家庭、私有制和国家的起源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%96%97%E4%BA%89</t>
-  </si>
-  <si>
-    <t>阶级斗争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>結構主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8A%9F%E8%83%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>结构功能主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>利益集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>公民社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
-  </si>
-  <si>
-    <t>私有化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
-  </si>
-  <si>
-    <t>國有化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>尤尔根·哈贝马斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%A2%86%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>公共领域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>托马斯·霍布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E5%B0%94</t>
-  </si>
-  <si>
-    <t>黑格尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>安东尼奥·葛兰西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E9%98%BF%E5%B0%94%E9%83%BD%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>路易·皮埃尔·阿尔都塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
-  </si>
-  <si>
-    <t>教堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>工会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
-  </si>
-  <si>
-    <t>西歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%B6%AD%E5%A4%9A%E5%9C%8B%E5%AE%B6%E6%AC%8A%E5%88%A9%E7%BE%A9%E5%8B%99%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>蒙特維多國家權利義務公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
-  </si>
-  <si>
-    <t>維基數據</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>有限承认国家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國旗列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8D%80</t>
-  </si>
-  <si>
-    <t>政區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>世界政区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>警察国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E4%B8%80%E8%A6%BD</t>
-  </si>
-  <si>
-    <t>沒有軍隊的國家一覽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>单一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%99%A8</t>
-  </si>
-  <si>
-    <t>国家机器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%8E%E7%A4%BE%E4%BC%9A%E7%9A%84%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>国家与社会的关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -1554,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,7 +3513,7 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="G68" t="n">
         <v>11</v>
@@ -3545,10 +3539,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3574,10 +3568,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3603,10 +3597,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3632,10 +3626,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3661,10 +3655,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3690,10 +3684,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3719,10 +3713,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3748,10 +3742,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3777,10 +3771,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3806,10 +3800,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3835,10 +3829,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3864,10 +3858,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3893,10 +3887,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3922,10 +3916,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3951,10 +3945,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3980,10 +3974,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4009,10 +4003,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4038,10 +4032,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4067,10 +4061,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4096,13 +4090,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4125,10 +4119,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4154,10 +4148,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4183,10 +4177,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>15</v>
@@ -4212,10 +4206,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -4241,10 +4235,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4270,10 +4264,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4299,10 +4293,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4328,10 +4322,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
@@ -4357,10 +4351,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
@@ -4386,10 +4380,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4415,10 +4409,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4444,10 +4438,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4473,10 +4467,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -4502,10 +4496,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4531,10 +4525,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4560,10 +4554,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4589,10 +4583,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4618,10 +4612,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4647,10 +4641,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4676,10 +4670,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4705,10 +4699,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>8</v>
@@ -4734,10 +4728,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -4763,10 +4757,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4792,10 +4786,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4821,10 +4815,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4850,10 +4844,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4879,10 +4873,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4908,10 +4902,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4937,10 +4931,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4966,10 +4960,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4995,10 +4989,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5024,10 +5018,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5053,10 +5047,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5082,10 +5076,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5111,10 +5105,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5140,10 +5134,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5169,10 +5163,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -5198,10 +5192,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5227,10 +5221,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>7</v>
@@ -5256,10 +5250,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5285,10 +5279,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5314,10 +5308,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5343,10 +5337,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5372,10 +5366,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5401,10 +5395,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5430,10 +5424,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5459,10 +5453,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5488,10 +5482,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>14</v>
@@ -5517,10 +5511,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5546,10 +5540,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5575,10 +5569,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5604,10 +5598,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -5633,10 +5627,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5662,10 +5656,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5691,10 +5685,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5720,10 +5714,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5749,10 +5743,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5778,10 +5772,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5807,10 +5801,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5836,10 +5830,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5865,10 +5859,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5894,10 +5888,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5923,10 +5917,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5952,10 +5946,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5981,10 +5975,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6010,10 +6004,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6039,10 +6033,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6068,10 +6062,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6097,10 +6091,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6126,10 +6120,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>8</v>
@@ -6155,10 +6149,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>6</v>
@@ -6184,10 +6178,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6213,10 +6207,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6242,10 +6236,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6271,10 +6265,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6300,10 +6294,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6329,10 +6323,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6358,10 +6352,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6387,10 +6381,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6416,10 +6410,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6445,10 +6439,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>11</v>
@@ -6474,10 +6468,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6503,10 +6497,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6532,10 +6526,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6561,10 +6555,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6590,10 +6584,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6619,10 +6613,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6648,10 +6642,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6677,10 +6671,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6706,10 +6700,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6735,10 +6729,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6764,10 +6758,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6793,10 +6787,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -6822,10 +6816,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6851,10 +6845,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6880,10 +6874,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6909,10 +6903,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6938,10 +6932,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6967,10 +6961,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6996,10 +6990,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="G188" t="n">
         <v>18</v>
@@ -7025,10 +7019,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7054,10 +7048,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7083,10 +7077,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7112,10 +7106,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7141,10 +7135,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7170,10 +7164,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7199,10 +7193,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7228,10 +7222,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7257,10 +7251,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7286,10 +7280,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7315,10 +7309,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7344,18 +7338,76 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
       </c>
       <c r="I200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
+        <v>392</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>201</v>
+      </c>
+      <c r="E202" t="s">
+        <v>393</v>
+      </c>
+      <c r="F202" t="s">
+        <v>394</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>4</v>
+      </c>
+      <c r="I202" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/国家_intext.xlsx
+++ b/xlsx/国家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治_国家</t>
+    <t>体育运动_体育运动_古埃及_国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
@@ -356,10 +356,10 @@
     <t>文化</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>种族</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
@@ -440,10 +440,10 @@
     <t>周易</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6</t>
-  </si>
-  <si>
-    <t>秦</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>秦朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
@@ -482,6 +482,12 @@
     <t>明史</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>王朝</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AD%A6%E4%B8%9C%E6%B8%90</t>
   </si>
   <si>
@@ -572,10 +578,10 @@
     <t>人文地理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4</t>
-  </si>
-  <si>
-    <t>范畴</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4_(%E5%93%B2%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>范畴 (哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
@@ -894,12 +900,6 @@
   </si>
   <si>
     <t>重商主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
@@ -1554,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,7 +3870,7 @@
         <v>156</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3899,7 +3899,7 @@
         <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3928,7 +3928,7 @@
         <v>160</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3957,7 +3957,7 @@
         <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3986,7 +3986,7 @@
         <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -4015,7 +4015,7 @@
         <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4102,7 +4102,7 @@
         <v>172</v>
       </c>
       <c r="G88" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4131,7 +4131,7 @@
         <v>174</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4160,7 +4160,7 @@
         <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4189,7 +4189,7 @@
         <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4218,7 +4218,7 @@
         <v>180</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4247,7 +4247,7 @@
         <v>182</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4305,7 +4305,7 @@
         <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4334,7 +4334,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4363,7 +4363,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4392,7 +4392,7 @@
         <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4421,7 +4421,7 @@
         <v>194</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4450,7 +4450,7 @@
         <v>196</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4479,7 +4479,7 @@
         <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4508,7 +4508,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4537,7 +4537,7 @@
         <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4595,7 +4595,7 @@
         <v>206</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4624,7 +4624,7 @@
         <v>208</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4653,7 +4653,7 @@
         <v>210</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4711,7 +4711,7 @@
         <v>214</v>
       </c>
       <c r="G109" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4740,7 +4740,7 @@
         <v>216</v>
       </c>
       <c r="G110" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4769,7 +4769,7 @@
         <v>218</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4885,7 +4885,7 @@
         <v>226</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4914,7 +4914,7 @@
         <v>228</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4943,7 +4943,7 @@
         <v>230</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4972,7 +4972,7 @@
         <v>232</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5059,7 +5059,7 @@
         <v>238</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5088,7 +5088,7 @@
         <v>240</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -5117,7 +5117,7 @@
         <v>242</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5146,7 +5146,7 @@
         <v>244</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5175,7 +5175,7 @@
         <v>246</v>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5204,7 +5204,7 @@
         <v>248</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5233,7 +5233,7 @@
         <v>250</v>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5262,7 +5262,7 @@
         <v>252</v>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5291,7 +5291,7 @@
         <v>254</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5320,7 +5320,7 @@
         <v>256</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5349,7 +5349,7 @@
         <v>258</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5436,7 +5436,7 @@
         <v>264</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5465,7 +5465,7 @@
         <v>266</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5494,7 +5494,7 @@
         <v>268</v>
       </c>
       <c r="G136" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5523,7 +5523,7 @@
         <v>270</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5552,7 +5552,7 @@
         <v>272</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5610,7 +5610,7 @@
         <v>276</v>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5639,7 +5639,7 @@
         <v>278</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5726,7 +5726,7 @@
         <v>284</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5755,7 +5755,7 @@
         <v>286</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5784,7 +5784,7 @@
         <v>288</v>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5813,7 +5813,7 @@
         <v>290</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5894,10 +5894,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5923,10 +5923,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5952,10 +5952,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5981,13 +5981,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6010,13 +6010,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6039,13 +6039,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6068,10 +6068,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6097,10 +6097,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6126,13 +6126,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6155,13 +6155,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6184,13 +6184,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6213,13 +6213,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6242,13 +6242,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6271,13 +6271,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6300,10 +6300,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6329,13 +6329,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6358,10 +6358,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6387,13 +6387,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6416,10 +6416,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6445,13 +6445,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6474,13 +6474,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6503,10 +6503,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6532,10 +6532,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6561,10 +6561,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6590,10 +6590,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6619,10 +6619,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6677,10 +6677,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6706,10 +6706,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6735,10 +6735,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6764,10 +6764,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6793,13 +6793,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6822,13 +6822,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6851,10 +6851,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6880,13 +6880,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -6909,13 +6909,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -6938,13 +6938,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -6967,13 +6967,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -6996,13 +6996,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7025,13 +7025,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7054,13 +7054,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7083,10 +7083,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7112,10 +7112,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7141,10 +7141,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7170,10 +7170,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7199,10 +7199,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7228,10 +7228,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7257,10 +7257,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7286,13 +7286,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7315,13 +7315,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7344,18 +7344,47 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>393</v>
+      </c>
+      <c r="F200" t="s">
+        <v>394</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
         <v>395</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
         <v>396</v>
       </c>
-      <c r="G200" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" t="s">
-        <v>4</v>
-      </c>
-      <c r="I200" t="n">
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" t="n">
         <v>3</v>
       </c>
     </row>
